--- a/6.Comparativa GrPUBvsGrPRI.xlsx
+++ b/6.Comparativa GrPUBvsGrPRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVa\Mis estudios\Comparativa webs\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2AE0B-C554-4CE2-B62A-683B1A96C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF195D5-BE48-464F-A2E1-FBC5C5BA7F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1608,7 +1608,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1658,12 +1670,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2795,90 +2801,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{0D94F5CA-C162-417E-B8A0-C3AD5FF8404E}" name="Archivo">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="62">
+    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="63">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="62">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="60">
+    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="61">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="59">
+    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="60">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="59">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="57">
+    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="58">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="56">
+    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="57">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="55">
+    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="56">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="54">
+    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="55">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="53">
+    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="54">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="52">
+    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="53">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="51">
+    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="52">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="50">
+    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="51">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="49">
+    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="50">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="48">
+    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="49">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="47">
+    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="48">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="46">
+    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="47">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="45">
+    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="46">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="44">
+    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="45">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="43">
+    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="44">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="42">
+    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="43">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="41">
+    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="42">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="40">
+    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="41">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="39">
+    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="40">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="38">
+    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="39">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="37">
+    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="38">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="36">
+    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="37">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2887,90 +2893,90 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{507B0E87-E2D8-4600-8D6F-579173E562F6}" name="Archivo">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="34">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="33">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="32">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="31">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="30">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="29">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="28">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="27">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="26">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="25">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="24">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="22">
+    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="23">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="22">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="21">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="19">
+    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="20">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="18">
+    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="19">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="17">
+    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="18">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="16">
+    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="17">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="15">
+    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="16">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="14">
+    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="15">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="13">
+    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="14">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="12">
+    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="13">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="11">
+    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="12">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="10">
+    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="11">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="9">
+    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="10">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="8">
+    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="9">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="7">
+    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="8">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5073,7 +5079,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6790,7 +6796,7 @@
         <v>-1.5625E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="str">
         <f t="shared" ref="A41:L41" si="16">A16</f>
         <v>A</v>
@@ -7145,7 +7151,7 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="11">
       <customFilters>
-        <customFilter operator="greaterThan" val="0.25"/>
+        <customFilter operator="greaterThanOrEqual" val="0.25"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -7165,8 +7171,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:L22 A28:L47">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$L3&gt;0.25</formula>
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>$L3&gt;=0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L22">
@@ -15251,17 +15257,17 @@
     <mergeCell ref="X71:Y71"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:W2 D3:Y65">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23325,12 +23331,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:W65">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/6.Comparativa GrPUBvsGrPRI.xlsx
+++ b/6.Comparativa GrPUBvsGrPRI.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVa\Mis estudios\Comparativa webs\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF195D5-BE48-464F-A2E1-FBC5C5BA7F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5A862-E7A5-4454-86D8-D903662F07A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp. puntuación media" sheetId="2" r:id="rId1"/>
     <sheet name="Comp. cumplimiento criterios" sheetId="1" r:id="rId2"/>
-    <sheet name="Cumplimiento indicadores GrPRI" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Cumplimiento indicadores GrPUB" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Comp. cumplimiento nivel ad." sheetId="5" r:id="rId3"/>
+    <sheet name="Cumplimiento indicadores GrPRI" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Cumplimiento indicadores GrPUB" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Comp. cumplimiento criterios'!$A$27:$O$47</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="238">
   <si>
     <t>Criterio</t>
   </si>
@@ -839,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,8 +871,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1353,12 +1372,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1424,6 +1467,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,9 +1493,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1603,24 +1646,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2698,7 +2741,6 @@
       <sheetName val="Resumen informes sin tratar"/>
       <sheetName val="Cumplimiento indicadores"/>
       <sheetName val="Resumen final"/>
-      <sheetName val="5.GrPUB estudio"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -2719,25 +2761,44 @@
             <v>3.2</v>
           </cell>
         </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="67">
+          <cell r="X67" t="str">
+            <v>Cumplen AA</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="X68" t="str">
+            <v>Cumplen A</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="X69" t="str">
+            <v>No válido</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
         <row r="5">
-          <cell r="H5">
+          <cell r="B5">
             <v>0.28125</v>
+          </cell>
+          <cell r="C5">
+            <v>0.453125</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>3.125E-2</v>
+          <cell r="C6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="H7">
-            <v>0.6875</v>
+          <cell r="C7">
+            <v>0.546875</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2755,7 +2816,6 @@
       <sheetName val="Resumen informes sin tratar"/>
       <sheetName val="Cumplimiento indicadores"/>
       <sheetName val="Resumen final"/>
-      <sheetName val="5.GrPRI estudio"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -2776,115 +2836,115 @@
             <v>2.6</v>
           </cell>
         </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="5">
-          <cell r="H5">
-            <v>3.125E-2</v>
+          <cell r="C5">
+            <v>7.8125E-2</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="H6">
-            <v>3.125E-2</v>
+          <cell r="C6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="H7">
-            <v>0.9375</v>
+          <cell r="C7">
+            <v>0.921875</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{0D94F5CA-C162-417E-B8A0-C3AD5FF8404E}" name="Archivo">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="63">
+    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="61">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="62">
+    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="60">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="61">
+    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="59">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="58">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="59">
+    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="57">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="58">
+    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="56">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="55">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="56">
+    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="54">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="55">
+    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="53">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="54">
+    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="52">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="53">
+    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="51">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="52">
+    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="50">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="51">
+    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="49">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="50">
+    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="48">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="49">
+    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="47">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="48">
+    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="46">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="47">
+    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="45">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="46">
+    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="44">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="45">
+    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="43">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="44">
+    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="42">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="43">
+    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="41">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="42">
+    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="40">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="41">
+    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="39">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="40">
+    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="38">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="39">
+    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="37">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="38">
+    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="36">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="37">
+    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="35">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2893,90 +2953,90 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{507B0E87-E2D8-4600-8D6F-579173E562F6}" name="Archivo">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="32">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="31">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="30">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="29">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="28">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="27">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="26">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="27">
+    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="25">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="24">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="25">
+    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="23">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="24">
+    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="22">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="23">
+    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="21">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="22">
+    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="20">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="21">
+    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="19">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="18">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="19">
+    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="17">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="18">
+    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="16">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="17">
+    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="15">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="16">
+    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="14">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="15">
+    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="13">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="14">
+    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="12">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="13">
+    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="11">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="12">
+    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="10">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="11">
+    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="9">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="10">
+    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="8">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="9">
+    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="7">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="8">
+    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="6">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3250,7 +3310,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,47 +3348,47 @@
       <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="34">
         <f>'[1]Resumen informes sin tratar'!$H2</f>
         <v>6.7578124999999991</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="34">
         <f>'[2]Resumen informes sin tratar'!$H2</f>
         <v>4.7671874999999977</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
@@ -3337,10 +3397,10 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <v>7.5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F3" t="s">
@@ -3349,26 +3409,26 @@
       <c r="G3" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="25">
         <v>4.7</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="34">
         <f>'[1]Resumen informes sin tratar'!$H3</f>
         <v>9</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="34">
         <f>'[2]Resumen informes sin tratar'!$H3</f>
         <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
@@ -3377,10 +3437,10 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <v>7.9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F4" t="s">
@@ -3389,26 +3449,26 @@
       <c r="G4" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="25">
         <v>5.8</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="34">
         <f>'[1]Resumen informes sin tratar'!$H4</f>
         <v>3.2</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="34">
         <f>'[2]Resumen informes sin tratar'!$H4</f>
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B5" t="s">
@@ -3417,10 +3477,10 @@
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <v>7</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F5" t="s">
@@ -3429,26 +3489,12 @@
       <c r="G5" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="25">
         <v>5.8</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="34">
-        <f>'[1]Resumen informes sin tratar'!$H5</f>
-        <v>0.28125</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="34">
-        <f>'[2]Resumen informes sin tratar'!$H5</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
@@ -3457,10 +3503,10 @@
       <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="25">
         <v>6.5</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F6" t="s">
@@ -3469,26 +3515,12 @@
       <c r="G6" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="25">
         <v>5.8</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="34">
-        <f>'[1]Resumen informes sin tratar'!$H6</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="34">
-        <f>'[2]Resumen informes sin tratar'!$H6</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
@@ -3497,10 +3529,10 @@
       <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="25">
         <v>6.3</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F7" t="s">
@@ -3509,26 +3541,12 @@
       <c r="G7" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="25">
         <v>5.8</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="34">
-        <f>'[1]Resumen informes sin tratar'!$H7</f>
-        <v>0.6875</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="34">
-        <f>'[2]Resumen informes sin tratar'!$H7</f>
-        <v>0.9375</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
@@ -3537,10 +3555,10 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>8.9</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F8" t="s">
@@ -3549,12 +3567,12 @@
       <c r="G8" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
@@ -3563,10 +3581,10 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="25">
         <v>5.5</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F9" t="s">
@@ -3575,12 +3593,12 @@
       <c r="G9" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <v>6.1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -3589,10 +3607,10 @@
       <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>8.9</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F10" t="s">
@@ -3601,12 +3619,12 @@
       <c r="G10" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B11" t="s">
@@ -3615,10 +3633,10 @@
       <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="25">
         <v>7.4</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F11" t="s">
@@ -3627,12 +3645,12 @@
       <c r="G11" t="s">
         <v>166</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="25">
         <v>7.8</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
@@ -3641,10 +3659,10 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>6.5</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F12" t="s">
@@ -3653,12 +3671,12 @@
       <c r="G12" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
@@ -3667,10 +3685,10 @@
       <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>7.1</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F13" t="s">
@@ -3679,12 +3697,12 @@
       <c r="G13" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="25">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B14" t="s">
@@ -3693,10 +3711,10 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>3.7</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F14" t="s">
@@ -3705,12 +3723,12 @@
       <c r="G14" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B15" t="s">
@@ -3719,10 +3737,10 @@
       <c r="C15" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="25">
         <v>5.8</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F15" t="s">
@@ -3731,12 +3749,12 @@
       <c r="G15" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B16" t="s">
@@ -3745,10 +3763,10 @@
       <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="25">
         <v>7.1</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F16" t="s">
@@ -3757,12 +3775,12 @@
       <c r="G16" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="25">
         <v>6.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B17" t="s">
@@ -3771,10 +3789,10 @@
       <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="25">
         <v>8.4</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F17" t="s">
@@ -3783,12 +3801,12 @@
       <c r="G17" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="25">
         <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B18" t="s">
@@ -3797,10 +3815,10 @@
       <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="25">
         <v>8.9</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F18" t="s">
@@ -3809,12 +3827,12 @@
       <c r="G18" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -3823,10 +3841,10 @@
       <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="25">
         <v>7.4</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F19" t="s">
@@ -3835,12 +3853,12 @@
       <c r="G19" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B20" t="s">
@@ -3849,10 +3867,10 @@
       <c r="C20" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="25">
         <v>4.5</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F20" t="s">
@@ -3861,12 +3879,12 @@
       <c r="G20" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="25">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B21" t="s">
@@ -3875,10 +3893,10 @@
       <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="25">
         <v>7.9</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F21" t="s">
@@ -3887,12 +3905,12 @@
       <c r="G21" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="25">
         <v>2.9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B22" t="s">
@@ -3901,10 +3919,10 @@
       <c r="C22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="25">
         <v>7.9</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F22" t="s">
@@ -3913,12 +3931,12 @@
       <c r="G22" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="s">
@@ -3927,10 +3945,10 @@
       <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="25">
         <v>8.1</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F23" t="s">
@@ -3939,12 +3957,12 @@
       <c r="G23" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B24" t="s">
@@ -3953,10 +3971,10 @@
       <c r="C24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="25">
         <v>5.3</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F24" t="s">
@@ -3965,12 +3983,12 @@
       <c r="G24" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B25" t="s">
@@ -3979,10 +3997,10 @@
       <c r="C25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="25">
         <v>6.8</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F25" t="s">
@@ -3991,12 +4009,12 @@
       <c r="G25" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
@@ -4005,10 +4023,10 @@
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="25">
         <v>7.9</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F26" t="s">
@@ -4017,12 +4035,12 @@
       <c r="G26" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
@@ -4031,10 +4049,10 @@
       <c r="C27" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="25">
         <v>4.7</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F27" t="s">
@@ -4043,12 +4061,12 @@
       <c r="G27" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B28" t="s">
@@ -4057,10 +4075,10 @@
       <c r="C28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="25">
         <v>8.4</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F28" t="s">
@@ -4069,12 +4087,12 @@
       <c r="G28" t="s">
         <v>183</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="25">
         <v>2.6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B29" t="s">
@@ -4083,10 +4101,10 @@
       <c r="C29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="25">
         <v>4.7</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F29" t="s">
@@ -4095,12 +4113,12 @@
       <c r="G29" t="s">
         <v>184</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
@@ -4109,10 +4127,10 @@
       <c r="C30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="25">
         <v>4.7</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F30" t="s">
@@ -4121,12 +4139,12 @@
       <c r="G30" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
@@ -4135,10 +4153,10 @@
       <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="25">
         <v>8.4</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F31" t="s">
@@ -4147,12 +4165,12 @@
       <c r="G31" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B32" t="s">
@@ -4161,10 +4179,10 @@
       <c r="C32" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="25">
         <v>8.4</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F32" t="s">
@@ -4173,12 +4191,12 @@
       <c r="G32" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B33" t="s">
@@ -4187,10 +4205,10 @@
       <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="25">
         <v>5.3</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="24" t="s">
         <v>157</v>
       </c>
       <c r="F33" t="s">
@@ -4199,12 +4217,12 @@
       <c r="G33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B34" t="s">
@@ -4213,10 +4231,10 @@
       <c r="C34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="25">
         <v>4.7</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F34" t="s">
@@ -4225,12 +4243,12 @@
       <c r="G34" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B35" t="s">
@@ -4239,10 +4257,10 @@
       <c r="C35" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="25">
         <v>8.9</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F35" t="s">
@@ -4251,12 +4269,12 @@
       <c r="G35" t="s">
         <v>191</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B36" t="s">
@@ -4265,10 +4283,10 @@
       <c r="C36" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="25">
         <v>5.9</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F36" t="s">
@@ -4277,12 +4295,12 @@
       <c r="G36" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="25">
         <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B37" t="s">
@@ -4291,10 +4309,10 @@
       <c r="C37" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="25">
         <v>4.7</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F37" t="s">
@@ -4303,12 +4321,12 @@
       <c r="G37" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B38" t="s">
@@ -4317,10 +4335,10 @@
       <c r="C38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="25">
         <v>7.4</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F38" t="s">
@@ -4329,12 +4347,12 @@
       <c r="G38" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="25">
         <v>6.1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B39" t="s">
@@ -4343,10 +4361,10 @@
       <c r="C39" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="25">
         <v>7.9</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F39" t="s">
@@ -4355,12 +4373,12 @@
       <c r="G39" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="25">
         <v>5.8</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B40" t="s">
@@ -4369,10 +4387,10 @@
       <c r="C40" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="25">
         <v>9</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F40" t="s">
@@ -4381,12 +4399,12 @@
       <c r="G40" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="25">
         <v>7.6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B41" t="s">
@@ -4395,10 +4413,10 @@
       <c r="C41" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="25">
         <v>7.9</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F41" t="s">
@@ -4407,12 +4425,12 @@
       <c r="G41" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B42" t="s">
@@ -4421,10 +4439,10 @@
       <c r="C42" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="25">
         <v>6.8</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F42" t="s">
@@ -4433,12 +4451,12 @@
       <c r="G42" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="25">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B43" t="s">
@@ -4447,10 +4465,10 @@
       <c r="C43" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="25">
         <v>7</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F43" t="s">
@@ -4459,12 +4477,12 @@
       <c r="G43" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B44" t="s">
@@ -4473,10 +4491,10 @@
       <c r="C44" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="25">
         <v>3.2</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F44" t="s">
@@ -4485,12 +4503,12 @@
       <c r="G44" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B45" t="s">
@@ -4499,10 +4517,10 @@
       <c r="C45" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="25">
         <v>6.8</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F45" t="s">
@@ -4511,12 +4529,12 @@
       <c r="G45" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="25">
         <v>6.1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B46" t="s">
@@ -4525,10 +4543,10 @@
       <c r="C46" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="25">
         <v>6.8</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F46" t="s">
@@ -4537,12 +4555,12 @@
       <c r="G46" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="25">
         <v>3.7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B47" t="s">
@@ -4551,10 +4569,10 @@
       <c r="C47" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="25">
         <v>4.7</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F47" t="s">
@@ -4563,12 +4581,12 @@
       <c r="G47" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B48" t="s">
@@ -4577,10 +4595,10 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F48" t="s">
@@ -4589,12 +4607,12 @@
       <c r="G48" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B49" t="s">
@@ -4603,10 +4621,10 @@
       <c r="C49" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="25">
         <v>8</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F49" t="s">
@@ -4615,12 +4633,12 @@
       <c r="G49" t="s">
         <v>205</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="25">
         <v>6.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B50" t="s">
@@ -4629,10 +4647,10 @@
       <c r="C50" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="25">
         <v>7.9</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F50" t="s">
@@ -4641,12 +4659,12 @@
       <c r="G50" t="s">
         <v>206</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="25">
         <v>4.2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B51" t="s">
@@ -4655,10 +4673,10 @@
       <c r="C51" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="25">
         <v>5.8</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F51" t="s">
@@ -4667,12 +4685,12 @@
       <c r="G51" t="s">
         <v>207</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="25">
         <v>6.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B52" t="s">
@@ -4681,10 +4699,10 @@
       <c r="C52" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="25">
         <v>6.5</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F52" t="s">
@@ -4693,12 +4711,12 @@
       <c r="G52" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B53" t="s">
@@ -4707,10 +4725,10 @@
       <c r="C53" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="25">
         <v>6.3</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F53" t="s">
@@ -4719,12 +4737,12 @@
       <c r="G53" t="s">
         <v>209</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B54" t="s">
@@ -4733,10 +4751,10 @@
       <c r="C54" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="25">
         <v>5.6</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F54" t="s">
@@ -4745,12 +4763,12 @@
       <c r="G54" t="s">
         <v>210</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B55" t="s">
@@ -4759,10 +4777,10 @@
       <c r="C55" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="25">
         <v>6.8</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F55" t="s">
@@ -4771,12 +4789,12 @@
       <c r="G55" t="s">
         <v>211</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B56" t="s">
@@ -4785,10 +4803,10 @@
       <c r="C56" t="s">
         <v>146</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="25">
         <v>7.6</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F56" t="s">
@@ -4797,12 +4815,12 @@
       <c r="G56" t="s">
         <v>212</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="25">
         <v>5.3</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B57" t="s">
@@ -4811,10 +4829,10 @@
       <c r="C57" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="25">
         <v>8.4</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F57" t="s">
@@ -4823,12 +4841,12 @@
       <c r="G57" t="s">
         <v>213</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="25">
         <v>5.9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B58" t="s">
@@ -4837,10 +4855,10 @@
       <c r="C58" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="25">
         <v>5.3</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F58" t="s">
@@ -4849,12 +4867,12 @@
       <c r="G58" t="s">
         <v>214</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="25">
         <v>2.6</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B59" t="s">
@@ -4863,10 +4881,10 @@
       <c r="C59" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="25">
         <v>6.3</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F59" t="s">
@@ -4875,12 +4893,12 @@
       <c r="G59" t="s">
         <v>215</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B60" t="s">
@@ -4889,10 +4907,10 @@
       <c r="C60" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="25">
         <v>8.9</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F60" t="s">
@@ -4901,12 +4919,12 @@
       <c r="G60" t="s">
         <v>216</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="25">
         <v>7.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B61" t="s">
@@ -4915,10 +4933,10 @@
       <c r="C61" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="25">
         <v>4.2</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F61" t="s">
@@ -4927,12 +4945,12 @@
       <c r="G61" t="s">
         <v>217</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="25">
         <v>5.8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B62" t="s">
@@ -4941,10 +4959,10 @@
       <c r="C62" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="25">
         <v>7.4</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F62" t="s">
@@ -4953,12 +4971,12 @@
       <c r="G62" t="s">
         <v>218</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="25">
         <v>3.9</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B63" t="s">
@@ -4967,10 +4985,10 @@
       <c r="C63" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="25">
         <v>8.4</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F63" t="s">
@@ -4979,12 +4997,12 @@
       <c r="G63" t="s">
         <v>219</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H63" s="25">
         <v>3.2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
@@ -4993,10 +5011,10 @@
       <c r="C64" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="25">
         <v>5.3</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F64" t="s">
@@ -5005,12 +5023,12 @@
       <c r="G64" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="25">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B65" t="s">
@@ -5019,10 +5037,10 @@
       <c r="C65" t="s">
         <v>155</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="25">
         <v>8.9</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F65" t="s">
@@ -5031,33 +5049,33 @@
       <c r="G65" t="s">
         <v>221</v>
       </c>
-      <c r="H65" s="24">
+      <c r="H65" s="25">
         <v>4.7</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="28">
         <v>5</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="28">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -5078,8 +5096,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,7 +7189,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:L22 A28:L47">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$L3&gt;=0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7205,6 +7223,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C75636-E7C5-45A6-ABC4-088EF47FE420}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="str">
+        <f>'[1]Cumplimiento indicadores'!X67</f>
+        <v>Cumplen AA</v>
+      </c>
+      <c r="B2" s="87">
+        <f>'[1]Resumen final'!C5</f>
+        <v>0.453125</v>
+      </c>
+      <c r="C2" s="87">
+        <f>'[2]Resumen final'!C5</f>
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="str">
+        <f>'[1]Cumplimiento indicadores'!X68</f>
+        <v>Cumplen A</v>
+      </c>
+      <c r="B3" s="88">
+        <f>'[1]Resumen final'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="88">
+        <f>'[2]Resumen final'!C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="str">
+        <f>'[1]Cumplimiento indicadores'!X69</f>
+        <v>No válido</v>
+      </c>
+      <c r="B4" s="89">
+        <f>'[1]Resumen final'!C7</f>
+        <v>0.546875</v>
+      </c>
+      <c r="C4" s="89">
+        <f>'[2]Resumen final'!C7</f>
+        <v>0.921875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B61DF8-868C-4A58-8FF7-F1BF1DC9028F}">
   <dimension ref="A1:AB72"/>
   <sheetViews>
@@ -14612,34 +14700,34 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C67" s="40" t="s">
@@ -15257,17 +15345,17 @@
     <mergeCell ref="X71:Y71"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:W2 D3:Y65">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15278,7 +15366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D87061-4467-42FF-AC0F-8738375B7DCC}">
   <dimension ref="A1:AB72"/>
   <sheetViews>
@@ -22685,34 +22773,34 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C67" s="40" t="s">
@@ -23331,12 +23419,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:W65">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/6.Comparativa GrPUBvsGrPRI.xlsx
+++ b/6.Comparativa GrPUBvsGrPRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVa\Mis estudios\Comparativa webs\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5A862-E7A5-4454-86D8-D903662F07A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBABEBB9-F44A-49B8-B6A5-D999DEAFD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp. puntuación media" sheetId="2" r:id="rId1"/>
@@ -840,7 +840,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,26 +871,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1372,36 +1354,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1649,13 +1607,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="7" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1624,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2861,90 +2834,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE7EB2F4-CF10-4AFB-9BC0-1663A00A9A9F}" name="Tabla13" displayName="Tabla13" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{0D94F5CA-C162-417E-B8A0-C3AD5FF8404E}" name="Archivo">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{A199512E-E9B2-438B-BD9F-FE2BAC530271}" name="Página" dataDxfId="63">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="60">
+    <tableColumn id="3" xr3:uid="{E612186C-A4C7-4376-8277-D002B1F03D43}" name="URL" dataDxfId="62">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{4E4195B8-8622-466E-B289-05CC5F9D6D90}" name="1.1" dataDxfId="61">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="58">
+    <tableColumn id="5" xr3:uid="{F4236017-B133-48D9-8C94-04BC4BEF1686}" name="1.2" dataDxfId="60">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="57">
+    <tableColumn id="6" xr3:uid="{90543269-9061-4145-8646-40D2A2C80BB8}" name="1.3" dataDxfId="59">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{BC32E9F9-2D47-42F9-99D9-A9F7595F04B9}" name="1.4" dataDxfId="58">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="55">
+    <tableColumn id="8" xr3:uid="{547FAD5F-F711-4B67-BFF8-6D57589E5C1A}" name="1.5" dataDxfId="57">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{55297228-960A-4750-83F7-E2BB1B5660F8}" name="1.6" dataDxfId="56">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{305A19C3-DCC9-4E01-989E-AC9878DB37E2}" name="1.7" dataDxfId="55">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="52">
+    <tableColumn id="11" xr3:uid="{D2904DE5-0F20-493C-A471-81F824BDD714}" name="1.8" dataDxfId="54">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="51">
+    <tableColumn id="12" xr3:uid="{BF7397A3-F2B4-487A-85C0-41E5D5C7C87F}" name="1.9" dataDxfId="53">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="50">
+    <tableColumn id="13" xr3:uid="{B9930946-149B-4931-8642-0E28DB9BCDBF}" name="1.10" dataDxfId="52">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="49">
+    <tableColumn id="14" xr3:uid="{9647DCD8-0722-4B4E-BCB0-467EAFF43620}" name="1.11" dataDxfId="51">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="48">
+    <tableColumn id="15" xr3:uid="{D85451A4-74AE-40D7-B31B-FA9ED775A466}" name="1.12" dataDxfId="50">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="47">
+    <tableColumn id="16" xr3:uid="{0F7D4FA1-8073-478C-AFB9-51C464905B2F}" name="1.13" dataDxfId="49">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="46">
+    <tableColumn id="17" xr3:uid="{4746A370-A030-4C45-BAAD-5ED4FC54A105}" name="1.14" dataDxfId="48">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="45">
+    <tableColumn id="18" xr3:uid="{31DAEC9D-A498-4367-BECB-61CB20F3E21D}" name="2.1" dataDxfId="47">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="44">
+    <tableColumn id="19" xr3:uid="{430F7A52-2C52-4861-85B8-378BEC7D6C5B}" name="2.2" dataDxfId="46">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="43">
+    <tableColumn id="20" xr3:uid="{24C2FA56-7795-4D87-86CC-9218BCFF9B65}" name="2.3" dataDxfId="45">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="42">
+    <tableColumn id="21" xr3:uid="{E9C7C04C-B21B-4B05-8CD5-3E20F94939EE}" name="2.4" dataDxfId="44">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="41">
+    <tableColumn id="22" xr3:uid="{2C7E5CBB-0829-4213-949D-2A26DA9FD9E9}" name="2.5" dataDxfId="43">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="40">
+    <tableColumn id="23" xr3:uid="{E9854FCE-7F1B-4CD2-A54B-CE07F309ECE2}" name="2.6" dataDxfId="42">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="39">
+    <tableColumn id="25" xr3:uid="{99848456-4FCE-4E31-8CB8-106A4969E0C9}" name="Fallos Nivel A" dataDxfId="41">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="38">
+    <tableColumn id="26" xr3:uid="{72E079EB-4568-4998-9041-ACFA3E17E8AB}" name="Fallos Nivel AA" dataDxfId="40">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="37">
+    <tableColumn id="24" xr3:uid="{263D1C01-7ED1-432C-B4C8-AD28A4D6DEDF}" name="Nivel de adecuación estimado original" dataDxfId="39">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="36">
+    <tableColumn id="27" xr3:uid="{5EAC0ADB-043F-43E0-941A-130B685FDDE6}" name="Check original" dataDxfId="38">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="35">
+    <tableColumn id="28" xr3:uid="{A1966111-D7AA-4470-B09A-9F839466C849}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="37">
       <calculatedColumnFormula>[2]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2953,90 +2926,90 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADBCF27B-9D5E-4049-A614-EE6206FA3D34}" name="Tabla1" displayName="Tabla1" ref="A1:AB65" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{507B0E87-E2D8-4600-8D6F-579173E562F6}" name="Archivo">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Archivo]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{736C8E56-4444-4726-857D-CB3001F18388}" name="Página" dataDxfId="34">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Página]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{6E471112-708D-417F-B260-177AC3A57907}" name="URL" dataDxfId="33">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[URL]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{0DDEA28D-010B-41F2-8380-0BF7105905C4}" name="1.1" dataDxfId="32">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{209CDB9B-50AA-46A9-8522-8CDF9E2B2C06}" name="1.2" dataDxfId="31">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{B13E21AC-2B67-49D0-A91E-C00A27313FFA}" name="1.3" dataDxfId="30">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{9CE4510D-E295-4478-9B62-1426E3CF323F}" name="1.4" dataDxfId="29">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{226228B9-1F34-420A-8F52-9BB7C3D4873B}" name="1.5" dataDxfId="28">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{453031E3-8618-4FB5-8895-6BEB81D066B9}" name="1.6" dataDxfId="27">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{2A2E9C9E-F2DB-4799-9B3B-493C5B69ABF1}" name="1.7" dataDxfId="26">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.7]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{96F8CD86-A53E-4F07-83CC-3C1BD2700941}" name="1.8" dataDxfId="25">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.8]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="22">
+    <tableColumn id="12" xr3:uid="{B5C2B36A-21C3-4A3D-89E9-2F605193B6C8}" name="1.9" dataDxfId="24">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="21">
+    <tableColumn id="13" xr3:uid="{C48DF938-25E6-4CBB-804B-A73CF28F6640}" name="1.10" dataDxfId="23">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.10]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="20">
+    <tableColumn id="14" xr3:uid="{B4133663-A159-4A7C-AAE2-9E2413ACA6F5}" name="1.11" dataDxfId="22">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.11]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="19">
+    <tableColumn id="15" xr3:uid="{C249D7ED-D47E-463D-9ABF-13F9FF51DAC9}" name="1.12" dataDxfId="21">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.12]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="18">
+    <tableColumn id="16" xr3:uid="{BA21785C-9634-42E4-B84B-B1A78E6C4A2A}" name="1.13" dataDxfId="20">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.13]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="17">
+    <tableColumn id="17" xr3:uid="{D844A18F-3655-4B20-A56C-C41225EE3664}" name="1.14" dataDxfId="19">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[1.14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="16">
+    <tableColumn id="18" xr3:uid="{6E3B89B3-58FC-4A3A-8CC0-7360A50F7255}" name="2.1" dataDxfId="18">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="15">
+    <tableColumn id="19" xr3:uid="{E2C73D96-0248-4141-8DEE-E3F653CA89F4}" name="2.2" dataDxfId="17">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="14">
+    <tableColumn id="20" xr3:uid="{BEF74C10-5425-4C51-B50E-ED8D2E7FBCF1}" name="2.3" dataDxfId="16">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="13">
+    <tableColumn id="21" xr3:uid="{53695E00-9918-4AB7-8B9C-6B9B0E8FB2E6}" name="2.4" dataDxfId="15">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.4]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="12">
+    <tableColumn id="22" xr3:uid="{FB4A73DE-FE1C-4CE2-A727-5AA4EAFC2D30}" name="2.5" dataDxfId="14">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="11">
+    <tableColumn id="23" xr3:uid="{A65844B3-6DEF-49AF-B6B0-16E975DA654B}" name="2.6" dataDxfId="13">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[2.6]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="10">
+    <tableColumn id="25" xr3:uid="{49CD70EA-D362-4EBD-8AC5-F9E46975581C}" name="Fallos Nivel A" dataDxfId="12">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel A]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="9">
+    <tableColumn id="26" xr3:uid="{56676183-8A92-4841-B575-D266417318EA}" name="Fallos Nivel AA" dataDxfId="11">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Fallos Nivel AA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="8">
+    <tableColumn id="24" xr3:uid="{DB31C8E8-9F27-4D10-AFBB-CA7D9F176B05}" name="Nivel de adecuación estimado original" dataDxfId="10">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="7">
+    <tableColumn id="27" xr3:uid="{433C3276-FBBC-44D4-8FB6-B6C5D3D9C5A8}" name="Check original" dataDxfId="9">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Check original]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="6">
+    <tableColumn id="28" xr3:uid="{0DDB8572-C33B-4EC3-B3E0-CED64C615C6C}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="8">
       <calculatedColumnFormula>[1]!Tabla1[[#This Row],[Nivel de adecuación estimado sin 1.7 y 2.1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5096,8 +5069,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,7 +7162,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A3:L22 A28:L47">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$L3&gt;=0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7226,8 +7199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C75636-E7C5-45A6-ABC4-088EF47FE420}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7244,7 +7217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="str">
         <f>'[1]Cumplimiento indicadores'!X67</f>
         <v>Cumplen AA</v>
@@ -7253,41 +7226,46 @@
         <f>'[1]Resumen final'!C5</f>
         <v>0.453125</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="88">
         <f>'[2]Resumen final'!C5</f>
         <v>7.8125E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="str">
         <f>'[1]Cumplimiento indicadores'!X68</f>
         <v>Cumplen A</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="89">
         <f>'[1]Resumen final'!C6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="90">
         <f>'[2]Resumen final'!C6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="str">
         <f>'[1]Cumplimiento indicadores'!X69</f>
         <v>No válido</v>
       </c>
-      <c r="B4" s="89">
+      <c r="B4" s="87">
         <f>'[1]Resumen final'!C7</f>
         <v>0.546875</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="88">
         <f>'[2]Resumen final'!C7</f>
         <v>0.921875</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:C4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$L2&gt;=0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15345,17 +15323,17 @@
     <mergeCell ref="X71:Y71"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:W2 D3:Y65">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23419,12 +23397,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D2:W65">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/6.Comparativa GrPUBvsGrPRI.xlsx
+++ b/6.Comparativa GrPUBvsGrPRI.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVa\Mis estudios\Comparativa webs\2023-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040A2DF-87C2-4BF0-98DF-060822DD0BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6889CFCC-9700-4B7A-9F5D-811B5F48BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="6" r:id="rId1"/>
     <sheet name="Comp. puntuación media" sheetId="2" r:id="rId2"/>
     <sheet name="Cumplimiento indicadores GrPUB" sheetId="3" r:id="rId3"/>
     <sheet name="Cumplimiento indicadores GrPRI" sheetId="4" r:id="rId4"/>
-    <sheet name="Comp. cumplimiento criterios" sheetId="1" r:id="rId5"/>
-    <sheet name="Comp. cumplimiento nivel ad." sheetId="5" r:id="rId6"/>
+    <sheet name="Comp. cump. criterios" sheetId="7" r:id="rId5"/>
+    <sheet name="Comp. cump. criterios sin - P" sheetId="1" r:id="rId6"/>
+    <sheet name="Comp. cumplimiento nivel ad." sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comp. cumplimiento criterios'!$A$27:$O$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Comp. cump. criterios'!$A$30:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Comp. cump. criterios sin - P'!$A$27:$O$47</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'Comp. puntuación media'!$D$3</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Comp. puntuación media'!$D$4:$D$67</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Comp. puntuación media'!$H$3</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="266">
   <si>
     <t>Criterio</t>
   </si>
@@ -818,9 +820,6 @@
     <t>Tabla obtenida de la pestaña Cumplimiento indicadores del fichero 5.GrPRI estudio.xlsm</t>
   </si>
   <si>
-    <t>Comp. cumplimiento criterios</t>
-  </si>
-  <si>
     <t>Tabla comparativa del cumplmiento de los criterios en ambas muestras</t>
   </si>
   <si>
@@ -831,6 +830,24 @@
   </si>
   <si>
     <t>Tabla comparativa del nivel de adecuación de ambas muestras</t>
+  </si>
+  <si>
+    <t>Comp. cump. criterios sin - P</t>
+  </si>
+  <si>
+    <t>Comp. cump. Criterios</t>
+  </si>
+  <si>
+    <t>Igual que el anterior, pero a la hora de obtener los porcentajes no se cuentan los casos - P</t>
+  </si>
+  <si>
+    <t>Subtotales</t>
+  </si>
+  <si>
+    <t>- P %</t>
+  </si>
+  <si>
+    <t>Diferencia GrPRI-GrPUB</t>
   </si>
 </sst>
 </file>
@@ -841,7 +858,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,8 +926,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,8 +995,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1526,12 +1556,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1821,6 +1927,15 @@
     <xf numFmtId="9" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1836,29 +1951,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1878,6 +1978,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1890,18 +2020,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="3" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="75">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1921,6 +2095,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3030,49 +3210,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9A33EC3-4FB7-4053-AF2B-6526040949A6}" name="Tabla15" displayName="Tabla15" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9A33EC3-4FB7-4053-AF2B-6526040949A6}" name="Tabla15" displayName="Tabla15" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{574CD7F2-4FC0-4CF6-B172-595CDFA6FD1A}" name="Archivo"/>
-    <tableColumn id="2" xr3:uid="{7D93CEDC-797D-430B-980C-5150736D914D}" name="Página" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{2A92AE77-B883-458C-A097-BBD089965CFC}" name="URL" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{9B3C2D24-54D1-42B2-9022-74D9FA370382}" name="1.1" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{CE9B421F-ECBE-4A53-B1E3-A012CA27246A}" name="1.2" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{98928A68-3BF1-4E69-B507-828F6AEA2EB0}" name="1.3" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{0621A6EB-679D-4FEB-94AF-061E2DE68193}" name="1.4" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{7CE93AD8-520E-4291-BD33-DC5F08D79329}" name="1.5" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{4B3E8103-52EF-4BFB-8115-66A832F70D35}" name="1.6" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{34C815F3-3BBC-43A4-BC48-2EFB500A955F}" name="1.7" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{8870A219-0CD5-44A3-8825-CA42FF292B60}" name="1.8" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{FCAD5C4F-6BD0-4D9B-88E2-5214C292B050}" name="1.9" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{82623482-C45D-47CC-82C9-8AA462ED8D74}" name="1.10" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{D7291241-A9E5-4681-B8B7-E61A6DB374D6}" name="1.11" dataDxfId="59"/>
-    <tableColumn id="15" xr3:uid="{DEA53A24-9E78-46D4-B503-A8B72BB671B2}" name="1.12" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{834557F5-A287-44D9-9AEC-53B7FCA0D0C3}" name="1.13" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{037AE33F-FB98-4E3C-9624-332417B581C1}" name="1.14" dataDxfId="56"/>
-    <tableColumn id="18" xr3:uid="{DDBA31A3-A030-4B96-BB4C-5CC2296A2EAD}" name="2.1" dataDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{23CDCFC4-6F65-4A5E-8096-B0D491C54D46}" name="2.2" dataDxfId="54"/>
-    <tableColumn id="20" xr3:uid="{5BA53E0E-DA36-4D83-B0F0-80529F57B51E}" name="2.3" dataDxfId="53"/>
-    <tableColumn id="21" xr3:uid="{85AA5087-A223-4A16-9FE7-0E7859C133FC}" name="2.4" dataDxfId="52"/>
-    <tableColumn id="22" xr3:uid="{6DFEB095-F11E-4350-8B28-74B2B4A09A91}" name="2.5" dataDxfId="51"/>
-    <tableColumn id="23" xr3:uid="{5680E96B-8A38-41A3-B938-854F355584E6}" name="2.6" dataDxfId="50"/>
-    <tableColumn id="25" xr3:uid="{0E7289FE-E1BE-454A-8F3D-E1A71BC75C79}" name="Fallos Nivel A" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{7D93CEDC-797D-430B-980C-5150736D914D}" name="Página" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{2A92AE77-B883-458C-A097-BBD089965CFC}" name="URL" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{9B3C2D24-54D1-42B2-9022-74D9FA370382}" name="1.1" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{CE9B421F-ECBE-4A53-B1E3-A012CA27246A}" name="1.2" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{98928A68-3BF1-4E69-B507-828F6AEA2EB0}" name="1.3" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{0621A6EB-679D-4FEB-94AF-061E2DE68193}" name="1.4" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{7CE93AD8-520E-4291-BD33-DC5F08D79329}" name="1.5" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{4B3E8103-52EF-4BFB-8115-66A832F70D35}" name="1.6" dataDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{34C815F3-3BBC-43A4-BC48-2EFB500A955F}" name="1.7" dataDxfId="64"/>
+    <tableColumn id="11" xr3:uid="{8870A219-0CD5-44A3-8825-CA42FF292B60}" name="1.8" dataDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{FCAD5C4F-6BD0-4D9B-88E2-5214C292B050}" name="1.9" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{82623482-C45D-47CC-82C9-8AA462ED8D74}" name="1.10" dataDxfId="61"/>
+    <tableColumn id="14" xr3:uid="{D7291241-A9E5-4681-B8B7-E61A6DB374D6}" name="1.11" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{DEA53A24-9E78-46D4-B503-A8B72BB671B2}" name="1.12" dataDxfId="59"/>
+    <tableColumn id="16" xr3:uid="{834557F5-A287-44D9-9AEC-53B7FCA0D0C3}" name="1.13" dataDxfId="58"/>
+    <tableColumn id="17" xr3:uid="{037AE33F-FB98-4E3C-9624-332417B581C1}" name="1.14" dataDxfId="57"/>
+    <tableColumn id="18" xr3:uid="{DDBA31A3-A030-4B96-BB4C-5CC2296A2EAD}" name="2.1" dataDxfId="56"/>
+    <tableColumn id="19" xr3:uid="{23CDCFC4-6F65-4A5E-8096-B0D491C54D46}" name="2.2" dataDxfId="55"/>
+    <tableColumn id="20" xr3:uid="{5BA53E0E-DA36-4D83-B0F0-80529F57B51E}" name="2.3" dataDxfId="54"/>
+    <tableColumn id="21" xr3:uid="{85AA5087-A223-4A16-9FE7-0E7859C133FC}" name="2.4" dataDxfId="53"/>
+    <tableColumn id="22" xr3:uid="{6DFEB095-F11E-4350-8B28-74B2B4A09A91}" name="2.5" dataDxfId="52"/>
+    <tableColumn id="23" xr3:uid="{5680E96B-8A38-41A3-B938-854F355584E6}" name="2.6" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{0E7289FE-E1BE-454A-8F3D-E1A71BC75C79}" name="Fallos Nivel A" dataDxfId="50">
       <calculatedColumnFormula>COUNTIF(D2:Q2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{D6575953-3F63-4B79-AC4E-BE0FF87BF530}" name="Fallos Nivel AA" dataDxfId="48">
+    <tableColumn id="26" xr3:uid="{D6575953-3F63-4B79-AC4E-BE0FF87BF530}" name="Fallos Nivel AA" dataDxfId="49">
       <calculatedColumnFormula>COUNTIF(R2:W2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{6948B44C-F093-4BFB-AAB6-3BBA31716C9C}" name="Puntuación Media original" dataDxfId="47"/>
-    <tableColumn id="30" xr3:uid="{5FC01226-C926-4173-A9C1-33E66ADC1E3A}" name="Check Puntuación Media original" dataDxfId="46">
+    <tableColumn id="31" xr3:uid="{6948B44C-F093-4BFB-AAB6-3BBA31716C9C}" name="Puntuación Media original" dataDxfId="48"/>
+    <tableColumn id="30" xr3:uid="{5FC01226-C926-4173-A9C1-33E66ADC1E3A}" name="Check Puntuación Media original" dataDxfId="47">
       <calculatedColumnFormula>10*(COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"1 P")+0.5*COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0.5 "))/(COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"1 P")+COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0 F")+COUNTIF(Tabla15[[#This Row],[1.1]:[2.6]],"0.5 P"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{5E663771-16F6-4556-A907-AFFD974C1F1E}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="45">
+    <tableColumn id="29" xr3:uid="{5E663771-16F6-4556-A907-AFFD974C1F1E}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="46">
       <calculatedColumnFormula>10*(COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "1 P") + 0.5*COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "0.5 P") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "1 P") + 0.5*COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "0.5 P") + 0.5*COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "0.5 P")) / (COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "1 P") + COUNTIF(Tabla15[[#This Row],[1.1]:[1.6]], "0 F") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "1 P") + COUNTIF(Tabla15[[#This Row],[1.8]:[1.14]], "0 F") + COUNTIF(Tabla15[[#This Row],[2.2]:[2.6]], "0 F"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{AA0F1A0A-940A-4000-988E-611ABAC40EFE}" name="Nivel de adecuación estimado original" dataDxfId="44"/>
-    <tableColumn id="27" xr3:uid="{1DA169DD-E42B-4C6C-8C2E-9D46D207351C}" name="Check Nivel ad. Original" dataDxfId="43">
+    <tableColumn id="24" xr3:uid="{AA0F1A0A-940A-4000-988E-611ABAC40EFE}" name="Nivel de adecuación estimado original" dataDxfId="45"/>
+    <tableColumn id="27" xr3:uid="{1DA169DD-E42B-4C6C-8C2E-9D46D207351C}" name="Check Nivel ad. Original" dataDxfId="44">
       <calculatedColumnFormula>IF(X2&gt;2,"No válido",IF(Y2&lt;3,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{C81FB9E2-ACCA-4AD5-B5AE-161AB0DB5826}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="42">
+    <tableColumn id="28" xr3:uid="{C81FB9E2-ACCA-4AD5-B5AE-161AB0DB5826}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="43">
       <calculatedColumnFormula>IF(X2&gt;3,"No válido",IF(Y2&lt;4,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3081,49 +3261,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93CF5173-74C4-45B5-8606-58CFDE65CA69}" name="Tabla1" displayName="Tabla1" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{93CF5173-74C4-45B5-8606-58CFDE65CA69}" name="Tabla1" displayName="Tabla1" ref="A1:AE65" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{8A0842DC-E53A-4D81-AA4F-EF8AC9F2FC8C}" name="Archivo"/>
-    <tableColumn id="2" xr3:uid="{1ECD9C57-5361-435C-ACDD-6507A9C287BF}" name="Página" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{95A1A851-C1DE-49FB-98AC-7111FF77361C}" name="URL" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{9D42CCE2-A6AF-4A82-9F2C-6FF2EEF920C6}" name="1.1" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{D2798725-9F05-463E-BEB0-DF4B6B6C1212}" name="1.2" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{8EF95DB4-6E59-4600-8B7F-98C946F20101}" name="1.3" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{2184CE5D-022A-4426-8E85-A7674B29FC22}" name="1.4" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{E4C2D519-24F9-49D8-9ACC-8D1AF8F16BF7}" name="1.5" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{9BD74BCA-E00B-42DF-8FC9-2BA713CD8B63}" name="1.6" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{BE1459B3-A1D7-40D0-ABB3-E5C7E9243F3E}" name="1.7" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{E62CE23D-6EB5-4698-85F0-813B3DA515A7}" name="1.8" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{EDC662D8-EE21-4A44-B7AB-18DCEC2FFAC6}" name="1.9" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{0512FCC9-CAC8-4A52-A4E2-B520F278124B}" name="1.10" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{C188E033-8B3A-4EF1-942C-3F1C9005DCA0}" name="1.11" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{5B70B0AC-5B2D-4248-AEF5-7B60C6E30220}" name="1.12" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{B347E7AB-F044-40E3-88A0-9B2B2639CB35}" name="1.13" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{F852E62C-CE94-4F22-B58B-11CE75414F4F}" name="1.14" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{43CE51D5-DBA6-477B-9E44-E228DCECD54A}" name="2.1" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{21E2412B-2A01-436C-B0D5-5B8019F93571}" name="2.2" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{F132F78C-0DAA-445D-AFB4-597D2CFA86CD}" name="2.3" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{71E90722-EDC6-4B67-A479-36C81E9246B5}" name="2.4" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{93268F58-D0FB-46F7-A134-AEB88994F2CD}" name="2.5" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{086207AD-F74E-46AC-BEB0-D5F55F14B10C}" name="2.6" dataDxfId="18"/>
-    <tableColumn id="25" xr3:uid="{F6324D7A-B3BF-42FC-BB18-03313B115B92}" name="Fallos Nivel A" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{1ECD9C57-5361-435C-ACDD-6507A9C287BF}" name="Página" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{95A1A851-C1DE-49FB-98AC-7111FF77361C}" name="URL" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{9D42CCE2-A6AF-4A82-9F2C-6FF2EEF920C6}" name="1.1" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{D2798725-9F05-463E-BEB0-DF4B6B6C1212}" name="1.2" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{8EF95DB4-6E59-4600-8B7F-98C946F20101}" name="1.3" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{2184CE5D-022A-4426-8E85-A7674B29FC22}" name="1.4" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{E4C2D519-24F9-49D8-9ACC-8D1AF8F16BF7}" name="1.5" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9BD74BCA-E00B-42DF-8FC9-2BA713CD8B63}" name="1.6" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{BE1459B3-A1D7-40D0-ABB3-E5C7E9243F3E}" name="1.7" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{E62CE23D-6EB5-4698-85F0-813B3DA515A7}" name="1.8" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{EDC662D8-EE21-4A44-B7AB-18DCEC2FFAC6}" name="1.9" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{0512FCC9-CAC8-4A52-A4E2-B520F278124B}" name="1.10" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{C188E033-8B3A-4EF1-942C-3F1C9005DCA0}" name="1.11" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{5B70B0AC-5B2D-4248-AEF5-7B60C6E30220}" name="1.12" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{B347E7AB-F044-40E3-88A0-9B2B2639CB35}" name="1.13" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{F852E62C-CE94-4F22-B58B-11CE75414F4F}" name="1.14" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{43CE51D5-DBA6-477B-9E44-E228DCECD54A}" name="2.1" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{21E2412B-2A01-436C-B0D5-5B8019F93571}" name="2.2" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{F132F78C-0DAA-445D-AFB4-597D2CFA86CD}" name="2.3" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{71E90722-EDC6-4B67-A479-36C81E9246B5}" name="2.4" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{93268F58-D0FB-46F7-A134-AEB88994F2CD}" name="2.5" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{086207AD-F74E-46AC-BEB0-D5F55F14B10C}" name="2.6" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{F6324D7A-B3BF-42FC-BB18-03313B115B92}" name="Fallos Nivel A" dataDxfId="18">
       <calculatedColumnFormula>COUNTIF(D2:Q2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{1F88FD90-076D-4C39-800E-ABC1961CBA4C}" name="Fallos Nivel AA" dataDxfId="16">
+    <tableColumn id="26" xr3:uid="{1F88FD90-076D-4C39-800E-ABC1961CBA4C}" name="Fallos Nivel AA" dataDxfId="17">
       <calculatedColumnFormula>COUNTIF(R2:W2,"0 F")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{2629B00F-4577-41C2-98EC-2935BE3F3E57}" name="Puntuación Media original" dataDxfId="15"/>
-    <tableColumn id="32" xr3:uid="{F3BA9DA9-D347-4ADA-8313-73C388D9C213}" name="Check Puntuación Media original" dataDxfId="14">
+    <tableColumn id="30" xr3:uid="{2629B00F-4577-41C2-98EC-2935BE3F3E57}" name="Puntuación Media original" dataDxfId="16"/>
+    <tableColumn id="32" xr3:uid="{F3BA9DA9-D347-4ADA-8313-73C388D9C213}" name="Check Puntuación Media original" dataDxfId="15">
       <calculatedColumnFormula>10*(COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"1 P")+0.5*COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0.5 "))/(COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"1 P")+COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0 F")+COUNTIF(Tabla1[[#This Row],[1.1]:[2.6]],"0.5 P"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{E8E3939D-251F-46EC-BED8-CF20E6CBD229}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="13">
+    <tableColumn id="33" xr3:uid="{E8E3939D-251F-46EC-BED8-CF20E6CBD229}" name="Puntuación Media sin 1.7 y 2.1" dataDxfId="14">
       <calculatedColumnFormula>10*(COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "1 P") + 0.5*COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "0.5 P") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "1 P") + 0.5*COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "0.5 P") + 0.5*COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "0.5 P")) / (COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "1 P") + COUNTIF(Tabla1[[#This Row],[1.1]:[1.6]], "0 F") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "1 P") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "1 P") + COUNTIF(Tabla1[[#This Row],[1.8]:[1.14]], "0 F") + COUNTIF(Tabla1[[#This Row],[2.2]:[2.6]], "0 F"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{EFF02CCB-584C-439E-B34A-12692D0EC7DC}" name="Nivel de adecuación estimado original" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{16F0B9BB-4CAA-44DF-9DD9-748057343C2F}" name="Check Nivel ad. Original" dataDxfId="11">
+    <tableColumn id="24" xr3:uid="{EFF02CCB-584C-439E-B34A-12692D0EC7DC}" name="Nivel de adecuación estimado original" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{16F0B9BB-4CAA-44DF-9DD9-748057343C2F}" name="Check Nivel ad. Original" dataDxfId="12">
       <calculatedColumnFormula>IF(X2&gt;2,"No válido",IF(Y2&lt;3,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{5FF55077-134D-434F-8425-2700A63D8D69}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="10">
+    <tableColumn id="28" xr3:uid="{5FF55077-134D-434F-8425-2700A63D8D69}" name="Nivel de adecuación estimado sin 1.7 y 2.1" dataDxfId="11">
       <calculatedColumnFormula>IF(X2&gt;3,"No válido",IF(Y2&lt;4,"AA","A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3397,9 +3577,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3407,10 +3589,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="101"/>
+      <c r="B2" s="104"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
@@ -3453,17 +3635,17 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="82" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3471,16 +3653,29 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="82" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="85" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3517,26 +3712,26 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="105"/>
-      <c r="J2" s="102" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="108"/>
+      <c r="J2" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="102" t="s">
+      <c r="K2" s="106"/>
+      <c r="L2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
@@ -5289,7 +5484,7 @@
   </sheetPr>
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A42" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12482,17 +12677,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AB65">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z67:AE69">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",Z67)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19712,22 +19907,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:W2 D3:Z65 AB3:AB65">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:W72">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Si">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Si">
       <formula>NOT(ISERROR(SEARCH("Si",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:AB2 AA3:AA65">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z67:AE69">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="0 F">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="0 F">
       <formula>NOT(ISERROR(SEARCH("0 F",Z67)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19739,6 +19934,2290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95B7BF7-C4C7-43E6-9C54-68D3EF981592}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="14" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="124"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="143"/>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="90">
+        <f>COUNTIF(Tabla15[1.1],"0 F")/64</f>
+        <v>0.34375</v>
+      </c>
+      <c r="E3" s="3">
+        <f>COUNTIF(Tabla15[1.1],"1 P")/64</f>
+        <v>0.640625</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="136">
+        <f>COUNTIF(Tabla15[1.1],"- P")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H3" s="90">
+        <f>COUNTIF(Tabla1[1.1],"0 F")/64</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="3">
+        <f>COUNTIF(Tabla1[1.1],"1 P")/64</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="135">
+        <f>H3-D3</f>
+        <v>0.15625</v>
+      </c>
+      <c r="N3" s="40">
+        <f>E3+F3+D3+G3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="40">
+        <f>I3+J3+H3+K3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <f>COUNTIF(Tabla15[1.2],"0 F")/64</f>
+        <v>0.34375</v>
+      </c>
+      <c r="E4" s="8">
+        <f>COUNTIF(Tabla15[1.2],"1 P")/64</f>
+        <v>0.625</v>
+      </c>
+      <c r="F4" s="8">
+        <f>COUNTIF(Tabla15[1.2],"0.5 P")/64</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7">
+        <f>COUNTIF(Tabla1[1.2],"0 F")/64</f>
+        <v>0.875</v>
+      </c>
+      <c r="I4" s="8">
+        <f>COUNTIF(Tabla1[1.2],"1 P")/64</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <f>COUNTIF(Tabla1[1.2],"0.5 P")/64</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="135">
+        <f t="shared" ref="L4:L16" si="0">H4-D4</f>
+        <v>0.53125</v>
+      </c>
+      <c r="N4" s="40">
+        <f t="shared" ref="N4:N23" si="1">E4+F4+D4+G4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="40">
+        <f t="shared" ref="O4:O23" si="2">I4+J4+H4+K4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="53">
+        <f>COUNTIF(Tabla15[1.3],"0 F")/64</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E5" s="45">
+        <f>COUNTIF(Tabla15[1.3],"1 P")/64</f>
+        <v>0.78125</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53">
+        <f>COUNTIF(Tabla1[1.3],"0 F")/64</f>
+        <v>0.34375</v>
+      </c>
+      <c r="I5" s="45">
+        <f>COUNTIF(Tabla1[1.3],"1 P")/64</f>
+        <v>0.65625</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="135">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="N5" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <f>COUNTIF(Tabla15[1.4],"0 F")/64</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <f>COUNTIF(Tabla15[1.4],"1 P")/64</f>
+        <v>0.125</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>COUNTIF(Tabla15[1.4],"- P")/64</f>
+        <v>0.828125</v>
+      </c>
+      <c r="H6" s="7">
+        <f>COUNTIF(Tabla1[1.4],"0 F")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <f>COUNTIF(Tabla1[1.4],"1 P")/64</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9">
+        <f>COUNTIF(Tabla1[1.4],"- P")/64</f>
+        <v>0.921875</v>
+      </c>
+      <c r="L6" s="135">
+        <f t="shared" si="0"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="N6" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="53">
+        <f>COUNTIF(Tabla15[1.5],"0 F")/64</f>
+        <v>0.234375</v>
+      </c>
+      <c r="E7" s="45">
+        <f>COUNTIF(Tabla15[1.5],"1 P")/64</f>
+        <v>0.765625</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53">
+        <f>COUNTIF(Tabla1[1.5],"0 F")/64</f>
+        <v>0.71875</v>
+      </c>
+      <c r="I7" s="45">
+        <f>COUNTIF(Tabla1[1.5],"1 P")/64</f>
+        <v>0.28125</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="135">
+        <f t="shared" si="0"/>
+        <v>0.484375</v>
+      </c>
+      <c r="N7" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7">
+        <f>COUNTIF(Tabla15[1.6],"0 F")/64</f>
+        <v>0.296875</v>
+      </c>
+      <c r="E8" s="8">
+        <f>COUNTIF(Tabla15[1.6],"1 P")/64</f>
+        <v>0.703125</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7">
+        <f>COUNTIF(Tabla1[1.6],"0 F")/64</f>
+        <v>0.640625</v>
+      </c>
+      <c r="I8" s="8">
+        <f>COUNTIF(Tabla1[1.6],"1 P")/64</f>
+        <v>0.359375</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="135">
+        <f t="shared" si="0"/>
+        <v>0.34375</v>
+      </c>
+      <c r="N8" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="53">
+        <f>COUNTIF(Tabla15[1.7],"0 F")/64</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="45">
+        <f>COUNTIF(Tabla15[1.7],"1 P")/64</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53">
+        <f>COUNTIF(Tabla1[1.7],"0 F")/64</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="45">
+        <f>COUNTIF(Tabla1[1.7],"1 P")/64</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="135">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="7">
+        <f>COUNTIF(Tabla15[1.8],"0 F")/64</f>
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="8">
+        <f>COUNTIF(Tabla15[1.8],"1 P")/64</f>
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7">
+        <f>COUNTIF(Tabla1[1.8],"0 F")/64</f>
+        <v>0.125</v>
+      </c>
+      <c r="I10" s="8">
+        <f>COUNTIF(Tabla1[1.8],"1 P")/64</f>
+        <v>0.875</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="135">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="53">
+        <f>COUNTIF(Tabla15[1.9],"0 F")/64</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E11" s="45">
+        <f>COUNTIF(Tabla15[1.9],"1 P")/64</f>
+        <v>0.640625</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54">
+        <f>COUNTIF(Tabla15[1.9],"- P")/64</f>
+        <v>0.140625</v>
+      </c>
+      <c r="H11" s="53">
+        <f>COUNTIF(Tabla1[1.9],"0 F")/64</f>
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="45">
+        <f>COUNTIF(Tabla1[1.9],"1 P")/64</f>
+        <v>0.359375</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="54">
+        <f>COUNTIF(Tabla1[1.9],"- P")/64</f>
+        <v>0.140625</v>
+      </c>
+      <c r="L11" s="135">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7">
+        <f>COUNTIF(Tabla15[1.10],"0 F")/64</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <f>COUNTIF(Tabla15[1.10],"1 P")/64</f>
+        <v>0.78125</v>
+      </c>
+      <c r="F12" s="8">
+        <f>COUNTIF(Tabla15[1.10],"0.5 P")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <f>COUNTIF(Tabla15[1.10],"- P")/64</f>
+        <v>0.140625</v>
+      </c>
+      <c r="H12" s="7">
+        <f>COUNTIF(Tabla1[1.10],"0 F")/64</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f>COUNTIF(Tabla1[1.10],"1 P")/64</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9">
+        <f>COUNTIF(Tabla1[1.10],"- P")/64</f>
+        <v>0.359375</v>
+      </c>
+      <c r="L12" s="135">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="53">
+        <f>COUNTIF(Tabla15[1.11],"0 F")/64</f>
+        <v>0.203125</v>
+      </c>
+      <c r="E13" s="45">
+        <f>COUNTIF(Tabla15[1.11],"1 P")/64</f>
+        <v>0.796875</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="53">
+        <f>COUNTIF(Tabla1[1.11],"0 F")/64</f>
+        <v>0.265625</v>
+      </c>
+      <c r="I13" s="45">
+        <f>COUNTIF(Tabla1[1.11],"1 P")/64</f>
+        <v>0.734375</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="135">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="N13" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7">
+        <f>COUNTIF(Tabla15[1.12],"0 F")/64</f>
+        <v>0.59375</v>
+      </c>
+      <c r="E14" s="8">
+        <f>COUNTIF(Tabla15[1.12],"1 P")/64</f>
+        <v>0.390625</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f>COUNTIF(Tabla15[1.12],"- P")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <f>COUNTIF(Tabla1[1.12],"0 F")/64</f>
+        <v>0.875</v>
+      </c>
+      <c r="I14" s="8">
+        <f>COUNTIF(Tabla1[1.12],"1 P")/64</f>
+        <v>0.125</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="135">
+        <f t="shared" si="0"/>
+        <v>0.28125</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="53">
+        <f>COUNTIF(Tabla15[1.13],"0 F")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E15" s="45">
+        <f>COUNTIF(Tabla15[1.13],"1 P")/64</f>
+        <v>0.984375</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="53">
+        <f>COUNTIF(Tabla1[1.13],"0 F")/64</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="45">
+        <f>COUNTIF(Tabla1[1.13],"1 P")/64</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="135">
+        <f t="shared" si="0"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="N15" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="17">
+        <f>COUNTIF(Tabla15[1.14],"0 F")/64</f>
+        <v>0.484375</v>
+      </c>
+      <c r="E16" s="18">
+        <f>COUNTIF(Tabla15[1.14],"1 P")/64</f>
+        <v>0.515625</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17">
+        <f>COUNTIF(Tabla1[1.14],"0 F")/64</f>
+        <v>0.734375</v>
+      </c>
+      <c r="I16" s="18">
+        <f>COUNTIF(Tabla1[1.14],"1 P")/64</f>
+        <v>0.265625</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="135">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="132">
+        <f>SUM(D3:D16)/14</f>
+        <v>0.29910714285714285</v>
+      </c>
+      <c r="E17" s="132">
+        <f>SUM(E3:E16)/14</f>
+        <v>0.6160714285714286</v>
+      </c>
+      <c r="F17" s="132">
+        <f>SUM(F3:F16)/14</f>
+        <v>3.3482142857142855E-3</v>
+      </c>
+      <c r="G17" s="132">
+        <f>SUM(G3:G16)/14</f>
+        <v>8.1473214285714288E-2</v>
+      </c>
+      <c r="H17" s="132">
+        <f>SUM(H3:H16)/14</f>
+        <v>0.4765625</v>
+      </c>
+      <c r="I17" s="132">
+        <f>SUM(I3:I16)/14</f>
+        <v>0.41964285714285715</v>
+      </c>
+      <c r="J17" s="132">
+        <f>SUM(J3:J16)/14</f>
+        <v>2.232142857142857E-3</v>
+      </c>
+      <c r="K17" s="132">
+        <f>SUM(K3:K16)/14</f>
+        <v>0.1015625</v>
+      </c>
+      <c r="L17" s="144">
+        <f>SUM(L3:L16)/14</f>
+        <v>0.17745535714285715</v>
+      </c>
+      <c r="N17" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12">
+        <f>COUNTIF(Tabla15[2.1],"0 F")/64</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <f>COUNTIF(Tabla15[2.1],"1 P")/64</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12">
+        <f>COUNTIF(Tabla1[2.1],"0 F")/64</f>
+        <v>0.96875</v>
+      </c>
+      <c r="I18" s="13">
+        <f>COUNTIF(Tabla1[2.1],"1 P")/64</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="135">
+        <f>H18-D18</f>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="N18" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7">
+        <f>COUNTIF(Tabla15[2.2],"0 F")/64</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E19" s="8">
+        <f>COUNTIF(Tabla15[2.2],"1 P")/64</f>
+        <v>0.78125</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7">
+        <f>COUNTIF(Tabla1[2.2],"0 F")/64</f>
+        <v>0.390625</v>
+      </c>
+      <c r="I19" s="8">
+        <f>COUNTIF(Tabla1[2.2],"1 P")/64</f>
+        <v>0.609375</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="135">
+        <f t="shared" ref="L19:L23" si="3">H19-D19</f>
+        <v>0.171875</v>
+      </c>
+      <c r="N19" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="53">
+        <f>COUNTIF(Tabla15[2.3],"0 F")/64</f>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="E20" s="45">
+        <f>COUNTIF(Tabla15[2.3],"1 P")/64</f>
+        <v>0.921875</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="53">
+        <f>COUNTIF(Tabla1[2.3],"0 F")/64</f>
+        <v>0.234375</v>
+      </c>
+      <c r="I20" s="45">
+        <f>COUNTIF(Tabla1[2.3],"1 P")/64</f>
+        <v>0.765625</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="135">
+        <f t="shared" si="3"/>
+        <v>0.15625</v>
+      </c>
+      <c r="N20" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7">
+        <f>COUNTIF(Tabla15[2.4],"0 F")/64</f>
+        <v>0.171875</v>
+      </c>
+      <c r="E21" s="8">
+        <f>COUNTIF(Tabla15[2.4],"1 P")/64</f>
+        <v>0.828125</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7">
+        <f>COUNTIF(Tabla1[2.4],"0 F")/64</f>
+        <v>0.640625</v>
+      </c>
+      <c r="I21" s="8">
+        <f>COUNTIF(Tabla1[2.4],"1 P")/64</f>
+        <v>0.359375</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="135">
+        <f t="shared" si="3"/>
+        <v>0.46875</v>
+      </c>
+      <c r="N21" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="53">
+        <f>COUNTIF(Tabla15[2.5],"0 F")/64</f>
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="45">
+        <f>COUNTIF(Tabla15[2.5],"1 P")/64</f>
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53">
+        <f>COUNTIF(Tabla1[2.5],"0 F")/64</f>
+        <v>0.6875</v>
+      </c>
+      <c r="I22" s="45">
+        <f>COUNTIF(Tabla1[2.5],"1 P")/64</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="135">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+      <c r="N22" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="17">
+        <f>COUNTIF(Tabla15[2.6],"0 F")/64</f>
+        <v>0.140625</v>
+      </c>
+      <c r="E23" s="18">
+        <f>COUNTIF(Tabla15[2.6],"1 P")/64</f>
+        <v>0.84375</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19">
+        <f>COUNTIF(Tabla15[2.6],"- P")/64</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H23" s="17">
+        <f>COUNTIF(Tabla1[2.6],"0 F")/64</f>
+        <v>0.125</v>
+      </c>
+      <c r="I23" s="18">
+        <f>COUNTIF(Tabla1[2.6],"1 P")/64</f>
+        <v>0.875</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="135">
+        <f t="shared" si="3"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="132">
+        <f>SUM(D18:D23)/6</f>
+        <v>0.30989583333333331</v>
+      </c>
+      <c r="E24" s="132">
+        <f>SUM(E18:E23)/6</f>
+        <v>0.6875</v>
+      </c>
+      <c r="F24" s="132">
+        <f>SUM(F18:F23)/6</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="132">
+        <f>SUM(G18:G23)/6</f>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="H24" s="132">
+        <f>SUM(H18:H23)/6</f>
+        <v>0.5078125</v>
+      </c>
+      <c r="I24" s="132">
+        <f>SUM(I18:I23)/6</f>
+        <v>0.4921875</v>
+      </c>
+      <c r="J24" s="132">
+        <f>SUM(J18:J23)/6</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="132">
+        <f>SUM(K18:K23)/6</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="144">
+        <f>SUM(L18:L23)/6</f>
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="145" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148">
+        <f>SUM(D3:D16,D18:D23)/20</f>
+        <v>0.30234375000000002</v>
+      </c>
+      <c r="E25" s="148">
+        <f t="shared" ref="E25:L25" si="4">SUM(E3:E16,E18:E23)/20</f>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="F25" s="148">
+        <f t="shared" si="4"/>
+        <v>2.3437499999999999E-3</v>
+      </c>
+      <c r="G25" s="148">
+        <f t="shared" si="4"/>
+        <v>5.7812500000000003E-2</v>
+      </c>
+      <c r="H25" s="148">
+        <f t="shared" si="4"/>
+        <v>0.48593750000000002</v>
+      </c>
+      <c r="I25" s="148">
+        <f t="shared" si="4"/>
+        <v>0.44140625</v>
+      </c>
+      <c r="J25" s="148">
+        <f t="shared" si="4"/>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="K25" s="148">
+        <f t="shared" si="4"/>
+        <v>7.1093749999999997E-2</v>
+      </c>
+      <c r="L25" s="149">
+        <f t="shared" si="4"/>
+        <v>0.18359375</v>
+      </c>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="103"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="119"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="str">
+        <f t="shared" ref="A31:A44" si="5">A3</f>
+        <v>A</v>
+      </c>
+      <c r="B31" s="47" t="str">
+        <f t="shared" ref="B31:L31" si="6">B3</f>
+        <v>1.1</v>
+      </c>
+      <c r="C31" s="57" t="str">
+        <f t="shared" si="6"/>
+        <v>Existencia de alternativas textuales</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" ref="D31:D44" si="7">D3</f>
+        <v>0.34375</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="6"/>
+        <v>0.640625</v>
+      </c>
+      <c r="F31" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="6"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" ref="H31:H44" si="8">H3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="6"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B32" s="46" t="str">
+        <f t="shared" ref="B32:C44" si="9">B4</f>
+        <v>1.2</v>
+      </c>
+      <c r="C32" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Uso de encabezados</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="7"/>
+        <v>0.34375</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" ref="E32:G44" si="10">E4</f>
+        <v>0.625</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="10"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G32" s="76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:L44" si="11">I4</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="11"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K32" s="76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="11"/>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B33" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="C33" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Uso de listas</v>
+      </c>
+      <c r="D33" s="45">
+        <f t="shared" si="7"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E33" s="53">
+        <f t="shared" si="10"/>
+        <v>0.78125</v>
+      </c>
+      <c r="F33" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="45">
+        <f t="shared" si="8"/>
+        <v>0.34375</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="11"/>
+        <v>0.65625</v>
+      </c>
+      <c r="J33" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B34" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="C34" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Tablas de datos</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="7"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="10"/>
+        <v>0.125</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="10"/>
+        <v>0.828125</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="11"/>
+        <v>0.921875</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="11"/>
+        <v>-3.125E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B35" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Agrupación estructural</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" si="7"/>
+        <v>0.234375</v>
+      </c>
+      <c r="E35" s="53">
+        <f t="shared" si="10"/>
+        <v>0.765625</v>
+      </c>
+      <c r="F35" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="45">
+        <f t="shared" si="8"/>
+        <v>0.71875</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" si="11"/>
+        <v>0.28125</v>
+      </c>
+      <c r="J35" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="11"/>
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B36" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="C36" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Separación de contenido y presentación</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="7"/>
+        <v>0.296875</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="10"/>
+        <v>0.703125</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.640625</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="11"/>
+        <v>0.359375</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B37" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="C37" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Identificación del idioma principal</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B38" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="C38" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Navegación con javascript accesible y control..</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="10"/>
+        <v>0.875</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="11"/>
+        <v>0.875</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B39" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="C39" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Formularios y etiquetas</v>
+      </c>
+      <c r="D39" s="45">
+        <f t="shared" si="7"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E39" s="53">
+        <f t="shared" si="10"/>
+        <v>0.640625</v>
+      </c>
+      <c r="F39" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="75">
+        <f t="shared" si="10"/>
+        <v>0.140625</v>
+      </c>
+      <c r="H39" s="45">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="53">
+        <f t="shared" si="11"/>
+        <v>0.359375</v>
+      </c>
+      <c r="J39" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="75">
+        <f t="shared" si="11"/>
+        <v>0.140625</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="11"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B40" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>1.10</v>
+      </c>
+      <c r="C40" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Formularios y estructura</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="10"/>
+        <v>0.78125</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="10"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="10"/>
+        <v>0.140625</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="8"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="11"/>
+        <v>0.5625</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="11"/>
+        <v>0.359375</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="11"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B41" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.11</v>
+      </c>
+      <c r="C41" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Título de página y de marcos</v>
+      </c>
+      <c r="D41" s="45">
+        <f t="shared" si="7"/>
+        <v>0.203125</v>
+      </c>
+      <c r="E41" s="53">
+        <f t="shared" si="10"/>
+        <v>0.796875</v>
+      </c>
+      <c r="F41" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="45">
+        <f t="shared" si="8"/>
+        <v>0.265625</v>
+      </c>
+      <c r="I41" s="53">
+        <f t="shared" si="11"/>
+        <v>0.734375</v>
+      </c>
+      <c r="J41" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="11"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B42" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>1.12</v>
+      </c>
+      <c r="C42" s="58" t="str">
+        <f t="shared" si="9"/>
+        <v>Enlaces descriptivos</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="7"/>
+        <v>0.59375</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="10"/>
+        <v>0.390625</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="76">
+        <f t="shared" si="10"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="11"/>
+        <v>0.125</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="11"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B43" s="44" t="str">
+        <f t="shared" si="9"/>
+        <v>1.13</v>
+      </c>
+      <c r="C43" s="59" t="str">
+        <f t="shared" si="9"/>
+        <v>Cambios de contexto</v>
+      </c>
+      <c r="D43" s="45">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E43" s="53">
+        <f t="shared" si="10"/>
+        <v>0.984375</v>
+      </c>
+      <c r="F43" s="45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="53">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>A</v>
+      </c>
+      <c r="B44" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>1.14</v>
+      </c>
+      <c r="C44" s="60" t="str">
+        <f t="shared" si="9"/>
+        <v>Compatibilidad</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="7"/>
+        <v>0.484375</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="10"/>
+        <v>0.515625</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <f t="shared" si="8"/>
+        <v>0.734375</v>
+      </c>
+      <c r="I44" s="17">
+        <f t="shared" si="11"/>
+        <v>0.265625</v>
+      </c>
+      <c r="J44" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="61">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="str">
+        <f t="shared" ref="A45:L47" si="12">A18</f>
+        <v>AA</v>
+      </c>
+      <c r="B45" s="47" t="str">
+        <f t="shared" si="12"/>
+        <v>2.1</v>
+      </c>
+      <c r="C45" s="57" t="str">
+        <f t="shared" si="12"/>
+        <v>Identificación de los cambios de idioma</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ref="D45:D50" si="13">D18</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45:H50" si="14">H18</f>
+        <v>0.96875</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="12"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J45" s="13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="62">
+        <f t="shared" si="12"/>
+        <v>-3.125E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>AA</v>
+      </c>
+      <c r="B46" s="46" t="str">
+        <f t="shared" si="12"/>
+        <v>2.2</v>
+      </c>
+      <c r="C46" s="58" t="str">
+        <f t="shared" si="12"/>
+        <v>Legibilidad y contraste</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="13"/>
+        <v>0.21875</v>
+      </c>
+      <c r="E46" s="50">
+        <f t="shared" si="12"/>
+        <v>0.78125</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="14"/>
+        <v>0.390625</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="12"/>
+        <v>0.609375</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="12"/>
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="str">
+        <f t="shared" si="12"/>
+        <v>AA</v>
+      </c>
+      <c r="B47" s="44" t="str">
+        <f t="shared" si="12"/>
+        <v>2.3</v>
+      </c>
+      <c r="C47" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>Maquetación adaptable</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="13"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="E47" s="51">
+        <f t="shared" si="12"/>
+        <v>0.921875</v>
+      </c>
+      <c r="F47" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="45">
+        <f t="shared" si="14"/>
+        <v>0.234375</v>
+      </c>
+      <c r="I47" s="53">
+        <f t="shared" si="12"/>
+        <v>0.765625</v>
+      </c>
+      <c r="J47" s="45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="12"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="str">
+        <f t="shared" ref="A48:L50" si="15">A21</f>
+        <v>AA</v>
+      </c>
+      <c r="B48" s="46" t="str">
+        <f t="shared" si="15"/>
+        <v>2.4</v>
+      </c>
+      <c r="C48" s="58" t="str">
+        <f t="shared" si="15"/>
+        <v>Múltiples vías de navegación</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="13"/>
+        <v>0.171875</v>
+      </c>
+      <c r="E48" s="50">
+        <f t="shared" si="15"/>
+        <v>0.828125</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="80">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="14"/>
+        <v>0.640625</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="15"/>
+        <v>0.359375</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="15"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="str">
+        <f t="shared" si="15"/>
+        <v>AA</v>
+      </c>
+      <c r="B49" s="44" t="str">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>Independencia del dispositivo</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="51">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="45">
+        <f t="shared" si="14"/>
+        <v>0.6875</v>
+      </c>
+      <c r="I49" s="53">
+        <f t="shared" si="15"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J49" s="45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="15"/>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>AA</v>
+      </c>
+      <c r="B50" s="49" t="str">
+        <f t="shared" si="15"/>
+        <v>2.6</v>
+      </c>
+      <c r="C50" s="60" t="str">
+        <f t="shared" si="15"/>
+        <v>Navegación consistente</v>
+      </c>
+      <c r="D50" s="18">
+        <f t="shared" si="13"/>
+        <v>0.140625</v>
+      </c>
+      <c r="E50" s="52">
+        <f t="shared" si="15"/>
+        <v>0.84375</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="15"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H50" s="18">
+        <f t="shared" si="14"/>
+        <v>0.125</v>
+      </c>
+      <c r="I50" s="17">
+        <f t="shared" si="15"/>
+        <v>0.875</v>
+      </c>
+      <c r="J50" s="18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="61">
+        <f t="shared" si="15"/>
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A30:O50" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="14">
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:C30"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A17 A24:A25 A31:L50 A3:L16 A18:L23">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$L3&gt;=0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L16 L18:L23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:L50">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L17" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="9"/>
@@ -19767,37 +22246,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112" t="s">
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="109" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="122" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="N1" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="111"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="94" t="s">
         <v>246</v>
       </c>
@@ -19822,7 +22301,7 @@
       <c r="K2" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="110"/>
+      <c r="L2" s="123"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
@@ -20723,49 +23202,49 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="120" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123" t="s">
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="124" t="s">
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="118" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="119"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="41" t="s">
         <v>221</v>
       </c>
@@ -20790,7 +23269,7 @@
       <c r="K27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="125"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="str">
@@ -21850,7 +24329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C75636-E7C5-45A6-ABC4-088EF47FE420}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -21869,14 +24348,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="112"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
